--- a/T20-Brief/G20.xlsx
+++ b/T20-Brief/G20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iimv1-my.sharepoint.com/personal/kalyan_iimv_ac_in/Documents/Kalyan-Research/T20-PolicyBrief-G20/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e46a4301436fbcaf/Kalyan/KK-Python/Kalyan-Jupyter-Notebooks/T20-Brief/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{ECA320E5-6C1F-3347-AD78-8ED33AE7301E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBFE34A0-7880-3043-9870-1AC587EE7601}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{ECA320E5-6C1F-3347-AD78-8ED33AE7301E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{975FC2C4-BDD5-C448-8E1F-53D98C3E565E}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15100" activeTab="4" xr2:uid="{609D964B-ECF1-144B-A45E-3CDC5CDDA627}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>Year</t>
   </si>
@@ -685,21 +685,7 @@
     <cellStyle name="Normal 5" xfId="6" xr:uid="{4B71E71A-9590-674E-A975-16F93252E88E}"/>
     <cellStyle name="Normal 7" xfId="4" xr:uid="{44F81673-1D2A-B740-9E31-D25AE399C1AF}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -787,6 +773,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -801,7 +794,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="List of economies"/>
@@ -4494,9 +4487,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4534,7 +4527,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4640,7 +4633,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4782,7 +4775,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -22346,18 +22339,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B278:B313">
-    <cfRule type="containsErrors" dxfId="13" priority="8">
+    <cfRule type="containsErrors" dxfId="12" priority="8">
       <formula>ISERROR(B278)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:R1">
-    <cfRule type="containsErrors" dxfId="12" priority="2">
-      <formula>ISERROR(Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q286">
     <cfRule type="containsErrors" dxfId="11" priority="1">
       <formula>ISERROR(Q2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:R1">
+    <cfRule type="containsErrors" dxfId="10" priority="2">
+      <formula>ISERROR(Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42309,39 +42302,39 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A316:A343 C2:R270 G271:R271 P130:P286">
-    <cfRule type="containsErrors" dxfId="10" priority="9">
-      <formula>ISERROR(A2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B278:B327">
     <cfRule type="containsErrors" dxfId="9" priority="12">
       <formula>ISERROR(B278)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C2:R270 G271:R271 A316:A343">
+    <cfRule type="containsErrors" dxfId="8" priority="9">
+      <formula>ISERROR(A2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P286">
+    <cfRule type="containsErrors" dxfId="7" priority="7">
+      <formula>ISERROR(P2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R222:R267">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>ISERROR(R78)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R268">
-    <cfRule type="containsErrors" dxfId="7" priority="3">
+    <cfRule type="containsErrors" dxfId="5" priority="3">
       <formula>ISERROR(R268)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V130:AB282">
-    <cfRule type="containsErrors" dxfId="6" priority="10">
-      <formula>ISERROR(V130)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="S2:T271">
-    <cfRule type="containsErrors" dxfId="5" priority="2">
+    <cfRule type="containsErrors" dxfId="4" priority="2">
       <formula>ISERROR(S2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P129">
-    <cfRule type="containsErrors" dxfId="4" priority="7">
-      <formula>ISERROR(P2)</formula>
+  <conditionalFormatting sqref="V130:AB282">
+    <cfRule type="containsErrors" dxfId="3" priority="10">
+      <formula>ISERROR(V130)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42351,10 +42344,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB61668-7B6C-E440-A1D4-F4507A2D1E6E}">
-  <dimension ref="A1:AK313"/>
+  <dimension ref="A1:V313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42379,7 +42372,7 @@
     <col min="18" max="20" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -42437,53 +42430,8 @@
       <c r="V1" t="s">
         <v>2</v>
       </c>
-      <c r="W1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1997</v>
       </c>
@@ -42541,7 +42489,7 @@
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1997</v>
       </c>
@@ -42599,7 +42547,7 @@
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1997</v>
       </c>
@@ -42657,7 +42605,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1997</v>
       </c>
@@ -42715,7 +42663,7 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1997</v>
       </c>
@@ -42773,7 +42721,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1997</v>
       </c>
@@ -42831,7 +42779,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1997</v>
       </c>
@@ -42889,7 +42837,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -42947,7 +42895,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1997</v>
       </c>
@@ -43005,7 +42953,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1997</v>
       </c>
@@ -43063,7 +43011,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1997</v>
       </c>
@@ -43121,7 +43069,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1997</v>
       </c>
@@ -43179,7 +43127,7 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1998</v>
       </c>
@@ -43237,7 +43185,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1998</v>
       </c>
@@ -43295,7 +43243,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1998</v>
       </c>
@@ -60127,13 +60075,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B278:B313">
-    <cfRule type="containsErrors" dxfId="3" priority="4">
+    <cfRule type="containsErrors" dxfId="2" priority="4">
       <formula>ISERROR(B278)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:T1">
-    <cfRule type="containsErrors" dxfId="2" priority="3">
-      <formula>ISERROR(Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q286">
@@ -60141,9 +60084,9 @@
       <formula>ISERROR(Q2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1:AK1">
-    <cfRule type="containsErrors" dxfId="0" priority="1">
-      <formula>ISERROR(AJ1)</formula>
+  <conditionalFormatting sqref="Q1:T1">
+    <cfRule type="containsErrors" dxfId="0" priority="3">
+      <formula>ISERROR(Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
